--- a/Data/Data Indeks Standar Pencemar Udara (ISPU) di Provinsi DKI Jakarta ).xls.xlsx
+++ b/Data/Data Indeks Standar Pencemar Udara (ISPU) di Provinsi DKI Jakarta ).xls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New folder\Streamlit-Tugas_Akhir-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2F1A43-0CF1-48E0-AFEB-EC4225AB691D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C249A8-A796-49E9-9FD5-2C99439BB418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4A4A7E11-3782-45E8-9926-1ED104F051C8}"/>
   </bookViews>
@@ -127,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-23809]mm/dd/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-23809]mmmm\ dd\,\ yyyy;@"/>
-    <numFmt numFmtId="172" formatCode="[$-13809]dddd\,\ dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-23809]mmmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-13809]dddd\,\ dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -631,11 +631,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A758820A-1066-4D44-9CA5-3FE36A36148F}">
   <dimension ref="A1:P2281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A606" sqref="A606:XFD2281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
